--- a/backend/data/templates/vehicles_template.xlsx
+++ b/backend/data/templates/vehicles_template.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,10 +433,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="11" customWidth="1" min="1" max="1"/>
-    <col width="9" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="16" customWidth="1" min="4" max="4"/>
+    <col width="6" customWidth="1" min="1" max="1"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="22" customWidth="1" min="3" max="3"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
     <col width="11" customWidth="1" min="7" max="7"/>
@@ -449,7 +449,7 @@
     <col width="10" customWidth="1" min="14" max="14"/>
     <col width="8" customWidth="1" min="15" max="15"/>
     <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="11" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
   </cols>
   <sheetData>
@@ -546,34 +546,22 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>TRUCK-001</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>12가3456</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
-          <t>냉동</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>UVIS-DVC-12345</t>
-        </is>
-      </c>
+          <t>냉동 또는 냉장 또는 겸용 또는 상온</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F2" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="G2" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H2" t="n">
         <v>5</v>
@@ -594,7 +582,7 @@
         <v>-18</v>
       </c>
       <c r="N2" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="O2" t="n">
         <v>1500</v>
@@ -604,78 +592,8 @@
           <t>운행가능</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>서울특별시 강서구</t>
-        </is>
-      </c>
+      <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>TRUCK-002</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>34나7890</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>냉장</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>UVIS-DVC-67890</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>14</v>
-      </c>
-      <c r="F3" t="n">
-        <v>8000</v>
-      </c>
-      <c r="G3" t="n">
-        <v>30</v>
-      </c>
-      <c r="H3" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I3" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>6</v>
-      </c>
-      <c r="N3" t="n">
-        <v>5</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1500</v>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>운행가능</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>서울특별시 구로구</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/backend/data/templates/vehicles_template.xlsx
+++ b/backend/data/templates/vehicles_template.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,10 +433,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="6" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="22" customWidth="1" min="3" max="3"/>
-    <col width="11" customWidth="1" min="4" max="4"/>
+    <col width="9" customWidth="1" min="1" max="1"/>
+    <col width="9" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="16" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
     <col width="11" customWidth="1" min="7" max="7"/>
@@ -449,7 +449,7 @@
     <col width="10" customWidth="1" min="14" max="14"/>
     <col width="8" customWidth="1" min="15" max="15"/>
     <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="11" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
   </cols>
   <sheetData>
@@ -546,14 +546,26 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>예시-V001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>12가3456</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>냉동 또는 냉장 또는 겸용 또는 상온</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
+          <t>냉동</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>UVIS-DVC-12345</t>
+        </is>
+      </c>
       <c r="E2" t="n">
         <v>20</v>
       </c>
@@ -592,8 +604,150 @@
           <t>운행가능</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>서울특별시 강서구</t>
+        </is>
+      </c>
       <c r="R2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>20</v>
+      </c>
+      <c r="F3" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G3" t="n">
+        <v>30</v>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+      <c r="I3" t="n">
+        <v>6</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-25</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-18</v>
+      </c>
+      <c r="N3" t="n">
+        <v>5</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1500</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>운행가능</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>20</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G4" t="n">
+        <v>30</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-25</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-18</v>
+      </c>
+      <c r="N4" t="n">
+        <v>5</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1500</v>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>운행가능</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>20</v>
+      </c>
+      <c r="F5" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G5" t="n">
+        <v>30</v>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+      <c r="I5" t="n">
+        <v>6</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-25</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-18</v>
+      </c>
+      <c r="N5" t="n">
+        <v>5</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1500</v>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>운행가능</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/backend/data/templates/vehicles_template.xlsx
+++ b/backend/data/templates/vehicles_template.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="차량" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="차량" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
